--- a/Calendarização Anteprojecto.xlsx
+++ b/Calendarização Anteprojecto.xlsx
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,13 +522,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>42768</v>
+        <v>43133</v>
       </c>
       <c r="D7" s="1">
         <v>41</v>
       </c>
       <c r="E7" s="3">
-        <v>42809</v>
+        <v>43174</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -537,13 +537,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="3">
-        <v>42768</v>
+        <v>43133</v>
       </c>
       <c r="D8" s="1">
         <v>41</v>
       </c>
       <c r="E8" s="3">
-        <v>42809</v>
+        <v>43174</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -552,13 +552,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <v>42779</v>
+        <v>43144</v>
       </c>
       <c r="D9" s="1">
         <v>28</v>
       </c>
       <c r="E9" s="3">
-        <v>42807</v>
+        <v>43172</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -567,13 +567,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="3">
-        <v>42779</v>
+        <v>43144</v>
       </c>
       <c r="D10" s="1">
         <v>28</v>
       </c>
       <c r="E10" s="3">
-        <v>42807</v>
+        <v>43172</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -582,11 +582,11 @@
         <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>42810</v>
+        <v>43175</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="3">
-        <v>42857</v>
+        <v>43222</v>
       </c>
       <c r="F11" s="2"/>
     </row>

--- a/Calendarização Anteprojecto.xlsx
+++ b/Calendarização Anteprojecto.xlsx
@@ -16,18 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Cronograma do Projeto</t>
   </si>
   <si>
     <t>Data Inicial</t>
-  </si>
-  <si>
-    <t>Tarefas</t>
-  </si>
-  <si>
-    <t>Tempo(Dias)</t>
   </si>
   <si>
     <t>Data Final</t>
@@ -54,14 +48,17 @@
     <t>Tutorias Programação do Robô</t>
   </si>
   <si>
-    <t>Responsáveis principais</t>
+    <t>Duração (dias)</t>
+  </si>
+  <si>
+    <t>Tarefa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +66,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,65 +122,45 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,6 +173,492 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cronograma</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.344222805482648"/>
+          <c:y val="9.5238095238095195E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Inicial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$B$7:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Criação da estrutura do Website</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Robô(hardware)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tutoriais Construção do Robô</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Robô(software)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tutorias Programação do Robô</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Criação da Aplicação Android</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Testes da Aplicação</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$C$7:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duração (dias)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$B$7:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Criação da estrutura do Website</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Robô(hardware)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tutoriais Construção do Robô</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Robô(software)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tutorias Programação do Robô</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Criação da Aplicação Android</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Testes da Aplicação</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$E$7:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
+        <c:axId val="41040384"/>
+        <c:axId val="95066304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="41040384"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95066304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95066304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="42996"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41040384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147955</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,150 +948,646 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F12"/>
+  <dimension ref="A3:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L23" sqref="L23:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C7" s="10">
+        <v>42996</v>
+      </c>
+      <c r="D7" s="10">
+        <v>43089</v>
+      </c>
+      <c r="E7" s="9">
+        <f>D7-C7</f>
+        <v>93</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="C8" s="10">
+        <v>43089</v>
+      </c>
+      <c r="D8" s="10">
+        <v>43174</v>
+      </c>
+      <c r="E8" s="9">
+        <f>D8-C8</f>
+        <v>85</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43133</v>
+      </c>
+      <c r="D9" s="10">
+        <v>43174</v>
+      </c>
+      <c r="E9" s="9">
+        <f>D9-C9</f>
+        <v>41</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
-        <v>42996</v>
-      </c>
-      <c r="D6" s="1">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3">
-        <v>43028</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="C10" s="10">
+        <v>43144</v>
+      </c>
+      <c r="D10" s="10">
+        <v>43172</v>
+      </c>
+      <c r="E10" s="9">
+        <f>D10-C10</f>
+        <v>28</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10">
+        <v>43144</v>
+      </c>
+      <c r="D11" s="10">
+        <v>43172</v>
+      </c>
+      <c r="E11" s="11">
+        <f>D11-C11</f>
+        <v>28</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
-        <v>43133</v>
-      </c>
-      <c r="D7" s="1">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3">
-        <v>43174</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>43133</v>
-      </c>
-      <c r="D8" s="1">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43174</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="C12" s="10">
+        <v>43175</v>
+      </c>
+      <c r="D12" s="10">
+        <v>43236</v>
+      </c>
+      <c r="E12" s="11">
+        <f>D12-C12</f>
+        <v>61</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
-        <v>43144</v>
-      </c>
-      <c r="D9" s="1">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3">
-        <v>43172</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3">
-        <v>43144</v>
-      </c>
-      <c r="D10" s="1">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3">
-        <v>43172</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3">
-        <v>43175</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3">
-        <v>43222</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
+      <c r="C13" s="10">
+        <v>43236</v>
+      </c>
+      <c r="D13" s="10">
+        <v>43242</v>
+      </c>
+      <c r="E13" s="11">
+        <f>D13-C13</f>
+        <v>6</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Calendarização Anteprojecto.xlsx
+++ b/Calendarização Anteprojecto.xlsx
@@ -155,12 +155,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,7 +284,7 @@
                   <c:v>42996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43089</c:v>
+                  <c:v>43103</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>43133</c:v>
@@ -541,7 +541,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>41</c:v>
@@ -572,11 +572,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="41040384"/>
-        <c:axId val="95066304"/>
+        <c:axId val="104483328"/>
+        <c:axId val="76564160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41040384"/>
+        <c:axId val="104483328"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -586,7 +586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95066304"/>
+        <c:crossAx val="76564160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -594,7 +594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95066304"/>
+        <c:axId val="76564160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42996"/>
@@ -607,7 +607,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41040384"/>
+        <c:crossAx val="104483328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -951,7 +951,7 @@
   <dimension ref="A3:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23:L24"/>
+      <selection activeCell="B7" sqref="B7:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,12 +975,12 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1028,7 +1028,7 @@
         <v>43089</v>
       </c>
       <c r="E7" s="9">
-        <f>D7-C7</f>
+        <f t="shared" ref="E7:E13" si="0">D7-C7</f>
         <v>93</v>
       </c>
       <c r="F7" s="12"/>
@@ -1042,14 +1042,14 @@
         <v>4</v>
       </c>
       <c r="C8" s="10">
-        <v>43089</v>
+        <v>43103</v>
       </c>
       <c r="D8" s="10">
         <v>43174</v>
       </c>
       <c r="E8" s="9">
-        <f>D8-C8</f>
-        <v>85</v>
+        <f t="shared" si="0"/>
+        <v>71</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -1068,7 +1068,7 @@
         <v>43174</v>
       </c>
       <c r="E9" s="9">
-        <f>D9-C9</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="F9" s="12"/>
@@ -1088,7 +1088,7 @@
         <v>43172</v>
       </c>
       <c r="E10" s="9">
-        <f>D10-C10</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F10" s="12"/>
@@ -1108,7 +1108,7 @@
         <v>43172</v>
       </c>
       <c r="E11" s="11">
-        <f>D11-C11</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F11" s="12"/>
@@ -1128,7 +1128,7 @@
         <v>43236</v>
       </c>
       <c r="E12" s="11">
-        <f>D12-C12</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="F12" s="12"/>
@@ -1148,7 +1148,7 @@
         <v>43242</v>
       </c>
       <c r="E13" s="11">
-        <f>D13-C13</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F13" s="12"/>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>

--- a/Calendarização Anteprojecto.xlsx
+++ b/Calendarização Anteprojecto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Cronograma do Projeto</t>
   </si>
@@ -27,31 +27,34 @@
     <t>Data Final</t>
   </si>
   <si>
-    <t>Criação da estrutura do Website</t>
-  </si>
-  <si>
-    <t>Robô(hardware)</t>
-  </si>
-  <si>
-    <t>Robô(software)</t>
-  </si>
-  <si>
-    <t>Criação da Aplicação Android</t>
-  </si>
-  <si>
-    <t>Testes da Aplicação</t>
-  </si>
-  <si>
-    <t>Tutoriais Construção do Robô</t>
-  </si>
-  <si>
-    <t>Tutorias Programação do Robô</t>
-  </si>
-  <si>
     <t>Duração (dias)</t>
   </si>
   <si>
     <t>Tarefa</t>
+  </si>
+  <si>
+    <t>Etapa 1-Criação da estrutura do Website</t>
+  </si>
+  <si>
+    <t>Etapa 2-Robô(hardware)</t>
+  </si>
+  <si>
+    <t>Etapa 3-Tutoriais Construção do Robô</t>
+  </si>
+  <si>
+    <t>Etapa 4- Robô(software)</t>
+  </si>
+  <si>
+    <t>Etapa 5- Tutoriais Programação do Robô</t>
+  </si>
+  <si>
+    <t>Etapa 6- Criação da Aplicação Android</t>
+  </si>
+  <si>
+    <t>Etapa 7-Testes da Aplicação</t>
+  </si>
+  <si>
+    <t>Etapa 8- Entrega do Projeto final</t>
   </si>
 </sst>
 </file>
@@ -247,39 +250,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$B$7:$B$13</c:f>
+              <c:f>Folha1!$B$7:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Criação da estrutura do Website</c:v>
+                  <c:v>Etapa 1-Criação da estrutura do Website</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Robô(hardware)</c:v>
+                  <c:v>Etapa 2-Robô(hardware)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Tutoriais Construção do Robô</c:v>
+                  <c:v>Etapa 3-Tutoriais Construção do Robô</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Robô(software)</c:v>
+                  <c:v>Etapa 4- Robô(software)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Tutorias Programação do Robô</c:v>
+                  <c:v>Etapa 5- Tutoriais Programação do Robô</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Criação da Aplicação Android</c:v>
+                  <c:v>Etapa 6- Criação da Aplicação Android</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Testes da Aplicação</c:v>
+                  <c:v>Etapa 7-Testes da Aplicação</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Etapa 8- Entrega do Projeto final</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$C$7:$C$13</c:f>
+              <c:f>Folha1!$C$7:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>42996</c:v>
                 </c:pt>
@@ -299,7 +305,10 @@
                   <c:v>43175</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43236</c:v>
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,39 +513,42 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$B$7:$B$13</c:f>
+              <c:f>Folha1!$B$7:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Criação da estrutura do Website</c:v>
+                  <c:v>Etapa 1-Criação da estrutura do Website</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Robô(hardware)</c:v>
+                  <c:v>Etapa 2-Robô(hardware)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Tutoriais Construção do Robô</c:v>
+                  <c:v>Etapa 3-Tutoriais Construção do Robô</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Robô(software)</c:v>
+                  <c:v>Etapa 4- Robô(software)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Tutorias Programação do Robô</c:v>
+                  <c:v>Etapa 5- Tutoriais Programação do Robô</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Criação da Aplicação Android</c:v>
+                  <c:v>Etapa 6- Criação da Aplicação Android</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Testes da Aplicação</c:v>
+                  <c:v>Etapa 7-Testes da Aplicação</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Etapa 8- Entrega do Projeto final</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$E$7:$E$13</c:f>
+              <c:f>Folha1!$E$7:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>93</c:v>
                 </c:pt>
@@ -553,10 +565,13 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,11 +587,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="104483328"/>
-        <c:axId val="76564160"/>
+        <c:axId val="90979840"/>
+        <c:axId val="103630528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104483328"/>
+        <c:axId val="90979840"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -586,7 +601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76564160"/>
+        <c:crossAx val="103630528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -594,7 +609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76564160"/>
+        <c:axId val="103630528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42996"/>
@@ -607,7 +622,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104483328"/>
+        <c:crossAx val="90979840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -636,7 +651,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -948,21 +963,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:V35"/>
+  <dimension ref="A3:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -973,7 +988,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="15" t="s">
         <v>0</v>
@@ -986,10 +1001,10 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>1</v>
@@ -998,14 +1013,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1016,10 +1031,10 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10">
         <v>42996</v>
@@ -1036,10 +1051,10 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10">
         <v>43103</v>
@@ -1056,10 +1071,10 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10">
         <v>43133</v>
@@ -1076,10 +1091,10 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10">
         <v>43144</v>
@@ -1096,7 +1111,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="11" t="s">
         <v>9</v>
@@ -1116,36 +1131,36 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10">
         <v>43175</v>
       </c>
       <c r="D12" s="10">
-        <v>43236</v>
+        <v>43251</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10">
-        <v>43236</v>
+        <v>43252</v>
       </c>
       <c r="D13" s="10">
-        <v>43242</v>
+        <v>43258</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
@@ -1156,55 +1171,55 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10">
+        <v>43259</v>
+      </c>
+      <c r="D14" s="10">
+        <v>43259</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1413,7 +1428,7 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1431,12 +1446,8 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1500,12 +1511,12 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1525,10 +1536,10 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1570,16 +1581,39 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
